--- a/approved_clauses.xlsx
+++ b/approved_clauses.xlsx
@@ -1,83 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Meeting_Folder</t>
-  </si>
-  <si>
-    <t>RP_Number</t>
-  </si>
-  <si>
-    <t>R4_Document</t>
-  </si>
-  <si>
-    <t>Matching_Clauses</t>
-  </si>
-  <si>
-    <t>Summary_of_Change</t>
-  </si>
-  <si>
-    <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109/</t>
-  </si>
-  <si>
-    <t>RP-252378</t>
-  </si>
-  <si>
-    <t>R4-2511059</t>
-  </si>
-  <si>
-    <t>5.3.6</t>
-  </si>
-  <si>
-    <t>Summary of change:
-Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,51 +420,703 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Meeting Folder</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RP Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R4 Document</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Matching Clause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Summary of Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R4-2509174</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R4-2509175</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R4-2509177</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R4-2509876</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R4-2509877</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R4-2509878</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R4-2509879</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R4-2511059</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.3.6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R4-2511060</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.3.6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R4-2511061</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.3.6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>R4-2511062</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.3.6</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>R4-2511805</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.3.6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R4-2511806</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Void Annex D which is not referred to in TS 38.101-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RP-252378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>R4-2511807</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Void Annex D which is not referred to in TS 38.101-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RP-252380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>R4-2511300</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RP-252380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>R4-2511301</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RP-252380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>R4-2511302</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RP-252383</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>R4-2511386</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RP-252383</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>R4-2511387</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RP-252383</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>R4-2511388</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RP-252383</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>R4-2511810</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RP-252419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>R4-2511756</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Merge following endorsed Rel-19 dCRs</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RP-252419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>R4-2511761</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.4.2.3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MPR reduction for FR1 with the following mechanisms:
+1. convert out RB allocations to inner allocations with extended CBW method (to be added)
+2. Add 1CC activation to the spec as a supplementary scenario to the NC CA section.
+3. Specify the MPR applicability for intra-band contiguous CA with single CC activated.
+4. Specify applicable emission requirements for PC2/PC3 intra-band contiguous CA with single CC activated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RP-252420</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>R4-2512824</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Introduction of 7 MHz Channel Bandwidth</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/approved_clauses.xlsx
+++ b/approved_clauses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R4-2509174</t>
+          <t>R4-2509876</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>5.3.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
         </is>
       </c>
     </row>
@@ -500,17 +501,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R4-2509175</t>
+          <t>R4-2509877</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>5.3.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
         </is>
       </c>
     </row>
@@ -527,17 +529,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R4-2509177</t>
+          <t>R4-2509878</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>5.3.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Update the format of the channel bandwidth list to avoid missing channel bandwidths and for ease of future maintenance.</t>
+          <t>In Figure 5.3.1-1:
+- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
         </is>
       </c>
     </row>
@@ -554,7 +557,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R4-2509876</t>
+          <t>R4-2509879</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -577,23 +580,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252380</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R4-2509877</t>
+          <t>R4-2511300</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>In Figure 5.3.1-1:
-- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
         </is>
       </c>
     </row>
@@ -605,23 +607,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252380</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R4-2509878</t>
+          <t>R4-2511301</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>In Figure 5.3.1-1:
-- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
         </is>
       </c>
     </row>
@@ -633,23 +634,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252380</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R4-2509879</t>
+          <t>R4-2511302</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>In Figure 5.3.1-1:
-- Change “Transmission Bandwidth [RB]” to “Transmission Bandwidth LCRB [RB]”.</t>
+          <t>Note 18 in Table 5.2-1 is removed.</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252383</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R4-2511059</t>
+          <t>R4-2511386</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
         </is>
       </c>
     </row>
@@ -688,22 +688,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R4-2511060</t>
+          <t>R4-2511387</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
         </is>
       </c>
     </row>
@@ -715,22 +715,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252383</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R4-2511061</t>
+          <t>R4-2511388</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252383</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R4-2511062</t>
+          <t>R4-2511810</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.3.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz</t>
+          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
         </is>
       </c>
     </row>
@@ -769,22 +769,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252391</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R4-2511805</t>
+          <t>R4-2510052</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.3.6</t>
+          <t>6.4G.2.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Adding a note reducing max RB for 60 MHz UL channel BW in asymmetric BW to 161 with 30kHz SCS in Asymmetric BW table for case UL=60MHz / DL=80MHz.</t>
+          <t>Adding missing Note for UL MIMO TPMI index
+Adding missing requirements for EVM equalizer spectrum flatness for Tx Diversity
+One change for spec improvement</t>
         </is>
       </c>
     </row>
@@ -796,22 +798,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252391</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R4-2511806</t>
+          <t>R4-2511840</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>6.4G.2.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Void Annex D which is not referred to in TS 38.101-1.</t>
+          <t>Adding missing Note for UL MIMO TPMI index
+Adding missing requirements for EVM equalizer spectrum flatness for Tx Diversity
+One change for spec improvement</t>
         </is>
       </c>
     </row>
@@ -823,22 +827,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RP-252378</t>
+          <t>RP-252413</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R4-2511807</t>
+          <t>R4-2510124</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>5.2J</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Void Annex D which is not referred to in TS 38.101-1.</t>
+          <t>Introduce R19 ATG enhancement UE RF requirements for ATG UE with CA and UL MIMO.</t>
         </is>
       </c>
     </row>
@@ -850,22 +854,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RP-252380</t>
+          <t>RP-252419</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R4-2511300</t>
+          <t>R4-2511756</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Note 18 in Table 5.2-1 is removed.</t>
+          <t>Merge following endorsed Rel-19 dCRs</t>
         </is>
       </c>
     </row>
@@ -877,209 +881,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RP-252380</t>
+          <t>RP-252419</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R4-2511301</t>
+          <t>R4-2511761</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.4.2.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>Note 18 in Table 5.2-1 is removed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>RP-252380</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>R4-2511302</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Note 18 in Table 5.2-1 is removed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>RP-252383</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>R4-2511386</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RP-252383</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>R4-2511387</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RP-252383</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>R4-2511388</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>RP-252383</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>R4-2511810</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Aligned with the principle of SUL+single carrier operation, it is specified that CA requirements apply when there is no active transmission on SUL carrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>RP-252419</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>R4-2511756</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Merge following endorsed Rel-19 dCRs</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>RP-252419</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>R4-2511761</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.4.2.3</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>MPR reduction for FR1 with the following mechanisms:
 1. convert out RB allocations to inner allocations with extended CBW method (to be added)
@@ -1089,28 +904,28 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.3gpp.org/ftp/tsg_ran/TSG_RAN/TSGR_109</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>RP-252420</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>R4-2512824</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>6.4</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Introduction of 7 MHz Channel Bandwidth</t>
         </is>
